--- a/Diseases and symptoms.xlsx
+++ b/Diseases and symptoms.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Disease database" sheetId="2" r:id="rId1"/>
+    <sheet name="Diseases and symptoms" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
